--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
     <sheet name="actorStatusEntity" sheetId="2" r:id="rId2"/>
+    <sheet name="monsterStatusEntity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +347,30 @@
   </si>
   <si>
     <t>보스몬스터9</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormarTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChampTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormarMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -677,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -1255,20 +1280,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A2:A40"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1287,8 +1313,14 @@
       <c r="F1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1307,8 +1339,14 @@
       <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1327,8 +1365,14 @@
       <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1347,8 +1391,14 @@
       <c r="F4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1367,8 +1417,14 @@
       <c r="F5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1387,8 +1443,14 @@
       <c r="F6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1407,8 +1469,14 @@
       <c r="F7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1427,8 +1495,14 @@
       <c r="F8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1447,8 +1521,14 @@
       <c r="F9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1467,8 +1547,14 @@
       <c r="F10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1487,8 +1573,14 @@
       <c r="F11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1507,8 +1599,14 @@
       <c r="F12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1527,8 +1625,14 @@
       <c r="F13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1547,8 +1651,14 @@
       <c r="F14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1567,8 +1677,14 @@
       <c r="F15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1587,8 +1703,14 @@
       <c r="F16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1607,8 +1729,14 @@
       <c r="F17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1627,8 +1755,14 @@
       <c r="F18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1647,8 +1781,14 @@
       <c r="F19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1667,8 +1807,14 @@
       <c r="F20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1687,8 +1833,14 @@
       <c r="F21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1707,8 +1859,14 @@
       <c r="F22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1727,8 +1885,14 @@
       <c r="F23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1747,8 +1911,14 @@
       <c r="F24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1767,8 +1937,14 @@
       <c r="F25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1787,8 +1963,14 @@
       <c r="F26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1807,8 +1989,14 @@
       <c r="F27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1827,8 +2015,14 @@
       <c r="F28">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1847,8 +2041,14 @@
       <c r="F29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1867,8 +2067,14 @@
       <c r="F30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1887,8 +2093,14 @@
       <c r="F31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1907,8 +2119,14 @@
       <c r="F32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1927,8 +2145,14 @@
       <c r="F33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1947,8 +2171,14 @@
       <c r="F34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1967,8 +2197,14 @@
       <c r="F35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1987,8 +2223,14 @@
       <c r="F36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2007,8 +2249,14 @@
       <c r="F37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2027,8 +2275,14 @@
       <c r="F38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2047,8 +2301,14 @@
       <c r="F39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2066,6 +2326,12 @@
       </c>
       <c r="F40">
         <v>10</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2073,4 +2339,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
-    <sheet name="actorStatusEntity" sheetId="2" r:id="rId2"/>
+    <sheet name="towerStatusEntity" sheetId="2" r:id="rId2"/>
     <sheet name="monsterStatusEntity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,6 +370,14 @@
   </si>
   <si>
     <t>moveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1280,21 +1288,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1314,13 +1322,10 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1339,14 +1344,11 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1365,14 +1367,11 @@
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1391,14 +1390,11 @@
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1417,14 +1413,11 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1443,14 +1436,11 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1469,14 +1459,11 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1495,14 +1482,11 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1521,14 +1505,11 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1547,14 +1528,11 @@
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1573,14 +1551,11 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1599,14 +1574,11 @@
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1625,14 +1597,11 @@
       <c r="F13">
         <v>5</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1651,14 +1620,11 @@
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1677,14 +1643,11 @@
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1703,14 +1666,11 @@
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1729,14 +1689,11 @@
       <c r="F17">
         <v>5</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1755,14 +1712,11 @@
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1781,14 +1735,11 @@
       <c r="F19">
         <v>5</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1807,14 +1758,11 @@
       <c r="F20">
         <v>5</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1833,14 +1781,11 @@
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1859,479 +1804,8 @@
       <c r="F22">
         <v>5</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>150</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
-        <v>300</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>450</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
-        <v>600</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>5</v>
-      </c>
-      <c r="H26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>750</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28">
-        <v>900</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
-      </c>
-      <c r="H28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>1050</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
-        <v>1200</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31">
-        <v>1350</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32">
-        <v>1500</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
-      <c r="H32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33">
-        <v>3000</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="H33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34">
-        <v>4500</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>5</v>
-      </c>
-      <c r="H34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35">
-        <v>6000</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-      <c r="H35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36">
-        <v>7500</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>9000</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="H37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38">
-        <v>10500</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
-        <v>12000</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>5</v>
-      </c>
-      <c r="H39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40">
-        <v>13500</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40">
-        <v>5</v>
-      </c>
-      <c r="H40" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2343,15 +1817,460 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>300</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>450</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>750</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>900</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>1050</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>1200</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>1350</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>1500</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>3000</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>4500</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>6000</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>7500</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>9000</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>10500</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>12000</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>13500</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="98">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,6 +378,10 @@
   </si>
   <si>
     <t>coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normar/LV1_Golem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1040,7 @@
         <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1283,6 +1287,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1291,7 +1296,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1819,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="103">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,26 @@
   </si>
   <si>
     <t>Prefabs/Monster/Normar/LV1_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normar/LV2_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normar/LV3_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/LV1_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/LV2_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/LV3_Golem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1074,7 @@
         <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1068,7 +1088,7 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1166,7 +1186,7 @@
         <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -1180,7 +1200,7 @@
         <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1194,7 +1214,7 @@
         <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA1422-C48B-445A-836A-6BFFE4F61636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="104">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Monster/LV1_Golem.prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,13 +399,21 @@
   </si>
   <si>
     <t>Prefabs/Monster/Boss/LV3_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/LV1_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/FireTower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,11 +736,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -755,553 +760,553 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1312,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1332,27 +1337,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -1370,12 +1375,12 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -1393,12 +1398,12 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>3000</v>
@@ -1416,12 +1421,12 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -1439,12 +1444,12 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -1462,12 +1467,12 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3000</v>
@@ -1485,12 +1490,12 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -1508,12 +1513,12 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -1531,12 +1536,12 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>3000</v>
@@ -1554,12 +1559,12 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1000</v>
@@ -1577,12 +1582,12 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -1600,12 +1605,12 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>3000</v>
@@ -1623,12 +1628,12 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>1000</v>
@@ -1646,12 +1651,12 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2000</v>
@@ -1669,12 +1674,12 @@
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>3000</v>
@@ -1692,12 +1697,12 @@
         <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>1000</v>
@@ -1715,12 +1720,12 @@
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>2000</v>
@@ -1738,12 +1743,12 @@
         <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>3000</v>
@@ -1761,12 +1766,12 @@
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>1000</v>
@@ -1784,12 +1789,12 @@
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>2000</v>
@@ -1807,12 +1812,12 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>3000</v>
@@ -1830,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +1846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1861,27 +1866,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>95</v>
-      </c>
-      <c r="G1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1893,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1904,7 +1909,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -1916,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1927,7 +1932,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>450</v>
@@ -1939,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1950,7 +1955,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>600</v>
@@ -1962,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1973,7 +1978,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>750</v>
@@ -1985,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1996,7 +2001,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>900</v>
@@ -2008,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2019,7 +2024,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1050</v>
@@ -2031,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -2042,7 +2047,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>1200</v>
@@ -2054,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -2065,7 +2070,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>1350</v>
@@ -2077,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2088,7 +2093,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1500</v>
@@ -2100,7 +2105,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2111,7 +2116,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>3000</v>
@@ -2123,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -2134,7 +2139,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>4500</v>
@@ -2146,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -2157,7 +2162,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>6000</v>
@@ -2169,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -2180,7 +2185,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>7500</v>
@@ -2192,7 +2197,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -2203,7 +2208,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>9000</v>
@@ -2215,7 +2220,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -2226,7 +2231,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>10500</v>
@@ -2238,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -2249,7 +2254,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>12000</v>
@@ -2261,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -2272,7 +2277,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>13500</v>
@@ -2284,7 +2289,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19">
         <v>9</v>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,10 @@
   </si>
   <si>
     <t>Prefabs/Projectile/TowerProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -923,10 +927,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -937,7 +941,7 @@
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -959,8 +963,11 @@
       <c r="G1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -982,8 +989,11 @@
       <c r="G2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1015,11 @@
       <c r="G3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1051,8 +1067,11 @@
       <c r="G5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1074,8 +1093,11 @@
       <c r="G6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1097,8 +1119,11 @@
       <c r="G7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1120,8 +1145,11 @@
       <c r="G8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1143,8 +1171,11 @@
       <c r="G9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1166,8 +1197,11 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1189,8 +1223,11 @@
       <c r="G11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1212,8 +1249,11 @@
       <c r="G12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1234,6 +1274,9 @@
       </c>
       <c r="G13" t="s">
         <v>34</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,26 @@
   </si>
   <si>
     <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerTypePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/NormarTowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/FireTowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/LightTowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/IceTowerType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -662,9 +682,10 @@
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="5" max="5" width="33.875" customWidth="1"/>
+    <col min="6" max="6" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,8 +701,11 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -694,8 +718,11 @@
       <c r="E2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -708,8 +735,11 @@
       <c r="E3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -722,8 +752,11 @@
       <c r="E4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -736,8 +769,11 @@
       <c r="E5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -750,8 +786,11 @@
       <c r="E6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -764,8 +803,11 @@
       <c r="E7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -778,8 +820,11 @@
       <c r="E8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -792,8 +837,11 @@
       <c r="E9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -806,8 +854,11 @@
       <c r="E10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -820,8 +871,11 @@
       <c r="E11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -834,8 +888,11 @@
       <c r="E12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -848,8 +905,11 @@
       <c r="E13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -859,11 +919,8 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -874,7 +931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -930,7 +987,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
     <sheet name="towerStatusEntity" sheetId="2" r:id="rId2"/>
     <sheet name="monsterStatusEntity" sheetId="3" r:id="rId3"/>
+    <sheet name="stageEntity" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +342,10 @@
   </si>
   <si>
     <t>IconImage/IceTowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1348,7 +1353,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1525,4 +1530,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D11E79-5943-4294-AB5B-BF616A56CD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="12960" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -352,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,7 +676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -988,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1349,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1533,11 +1534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D11E79-5943-4294-AB5B-BF616A56CD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,318 +41,345 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotationSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normon11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normon12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normon13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosmon11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosmon12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosmon13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말몬스터1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말몬스터2</t>
+  </si>
+  <si>
+    <t>노말몬스터3</t>
+  </si>
+  <si>
+    <t>보스몬스터1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터2</t>
+  </si>
+  <si>
+    <t>보스몬스터3</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormarTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormarMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normar/LV1_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normar/LV2_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normar/LV3_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/LV1_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/LV2_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/LV3_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/LV1_Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/FireTower1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/FireTower2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/FireTower3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급불타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급불타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급불타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급얼음타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급얼음타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급얼음타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급전기타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급전기타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급전기타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/IceTower1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/IceTower2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/IceTower3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/LightTower1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/LightTower2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/LightTower3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/MortarTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급총알타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급총알타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급총알타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Projectile/FireProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Projectile/IceProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Projectile/LightningProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projectilePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Projectile/TowerProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerTypePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/NormarTowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/FireTowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/LightTowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/IceTowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>iconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rotationSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normon11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normon12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normon13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bosmon11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bosmon12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bosmon13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노말몬스터1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노말몬스터2</t>
-  </si>
-  <si>
-    <t>노말몬스터3</t>
-  </si>
-  <si>
-    <t>보스몬스터1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스몬스터2</t>
-  </si>
-  <si>
-    <t>보스몬스터3</t>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormarTower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormarMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BossMonster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Normar/LV1_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Normar/LV2_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Normar/LV3_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Boss/LV1_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Boss/LV2_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Boss/LV3_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/LV1_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Tower/Character/FireTower1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Tower/Character/FireTower2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Tower/Character/FireTower3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급불타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급불타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급불타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급얼음타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급얼음타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급얼음타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급전기타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급전기타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급전기타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Tower/Character/IceTower1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Tower/Character/IceTower2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Tower/Character/IceTower3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Tower/Character/LightTower1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Tower/Character/LightTower2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Tower/Character/LightTower3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Tower/Character/MortarTower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급총알타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급총알타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급총알타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Projectile/FireProjectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Projectile/IceProjectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Projectile/LightningProjectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>projectilePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Projectile/TowerProjectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>towerTypePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconImage/NormarTowerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconImage/FireTowerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconImage/LightTowerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconImage/IceTowerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnCount</t>
+  </si>
+  <si>
+    <t>monsterHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/Normar1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/Normar2</t>
+  </si>
+  <si>
+    <t>IconImage/Normar3</t>
+  </si>
+  <si>
+    <t>IconImage/Boss2</t>
+  </si>
+  <si>
+    <t>IconImage/Boss3</t>
+  </si>
+  <si>
+    <t>IconImage/Boss1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,19 +702,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="5" max="5" width="33.875" customWidth="1"/>
-    <col min="6" max="6" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -702,283 +728,283 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +1015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1009,30 +1035,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -1050,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1058,7 +1084,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -1076,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1084,7 +1110,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3000</v>
@@ -1102,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1110,7 +1136,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -1128,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1136,7 +1162,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2000</v>
@@ -1154,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1162,7 +1188,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>3000</v>
@@ -1180,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1188,7 +1214,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -1206,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1214,7 +1240,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2000</v>
@@ -1232,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1240,7 +1266,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>3000</v>
@@ -1258,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -1266,7 +1292,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1000</v>
@@ -1284,7 +1310,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1292,7 +1318,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>2000</v>
@@ -1310,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1318,7 +1344,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>3000</v>
@@ -1336,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1350,11 +1376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1363,6 +1389,7 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1370,27 +1397,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1402,7 +1429,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1413,7 +1440,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -1425,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1436,7 +1463,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>450</v>
@@ -1448,7 +1475,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1459,7 +1486,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1500</v>
@@ -1471,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1482,7 +1509,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>3000</v>
@@ -1494,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1505,7 +1532,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>4500</v>
@@ -1517,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1534,11 +1561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1546,104 +1573,170 @@
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="8" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2">
+        <v>150</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>450</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7">
+        <v>4500</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
     <sheet name="towerStatusEntity" sheetId="2" r:id="rId2"/>
     <sheet name="monsterStatusEntity" sheetId="3" r:id="rId3"/>
     <sheet name="stageEntity" sheetId="4" r:id="rId4"/>
+    <sheet name="shopEntity" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +374,44 @@
   </si>
   <si>
     <t>iconPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/FireTowerLv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/FireTowerLv2</t>
+  </si>
+  <si>
+    <t>IconImage/FireTowerLv3</t>
+  </si>
+  <si>
+    <t>IconImage/IceTowerLv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/IceTowerLv2</t>
+  </si>
+  <si>
+    <t>IconImage/IceTowerLv3</t>
+  </si>
+  <si>
+    <t>IconImage/LightTowerLv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/LightTowerLv2</t>
+  </si>
+  <si>
+    <t>IconImage/LightTowerLv3</t>
+  </si>
+  <si>
+    <t>IconImage/BaseTower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1061,7 +1100,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1079,18 +1118,18 @@
         <v>33</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1105,18 +1144,18 @@
         <v>33</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1131,18 +1170,18 @@
         <v>33</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1157,18 +1196,18 @@
         <v>33</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1183,18 +1222,18 @@
         <v>33</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1209,18 +1248,18 @@
         <v>33</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1235,18 +1274,18 @@
         <v>33</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1261,18 +1300,18 @@
         <v>33</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1287,18 +1326,18 @@
         <v>33</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1313,58 +1352,6 @@
         <v>33</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>2000</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>3000</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13">
         <v>3</v>
       </c>
     </row>
@@ -1564,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1744,4 +1731,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A4D2F4-D3FC-4E51-96B9-B6D19B4631DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nor02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nor03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nor11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Monster/LV1_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Tower/Character/FireTower1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,22 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Tower/Character/MortarTower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급총알타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급총알타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급총알타워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Projectile/FireProjectile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,13 +385,21 @@
   </si>
   <si>
     <t>IconImage/BaseTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본타워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Normar/BaseTower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -741,11 +722,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,13 +748,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -781,16 +762,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -798,16 +779,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -815,16 +796,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -832,16 +813,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -849,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,16 +847,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -883,16 +864,16 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -900,16 +881,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -917,16 +898,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -934,50 +915,38 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1022,28 +991,6 @@
       </c>
       <c r="C17" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1083,16 +1030,16 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1115,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1123,7 +1070,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -1141,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -1149,7 +1096,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2000</v>
@@ -1167,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1175,7 +1122,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3000</v>
@@ -1193,7 +1140,7 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1201,7 +1148,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1000</v>
@@ -1219,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1227,7 +1174,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -1245,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1253,7 +1200,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>3000</v>
@@ -1271,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1279,7 +1226,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1000</v>
@@ -1297,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1305,7 +1252,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -1323,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1331,7 +1278,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>3000</v>
@@ -1349,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1363,7 +1310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1390,21 +1337,21 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1416,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1427,7 +1374,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -1439,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1450,7 +1397,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>450</v>
@@ -1462,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1473,7 +1420,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>1500</v>
@@ -1485,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1496,7 +1443,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>3000</v>
@@ -1508,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1519,7 +1466,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>4500</v>
@@ -1531,7 +1478,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1548,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1567,25 +1514,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1593,16 +1540,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -1616,16 +1563,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F3">
         <v>300</v>
@@ -1639,16 +1586,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>450</v>
@@ -1662,16 +1609,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F5">
         <v>1500</v>
@@ -1685,16 +1632,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F6">
         <v>3000</v>
@@ -1708,16 +1655,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>4500</v>
@@ -1734,10 +1681,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1751,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1765,106 +1712,106 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1000</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>500</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A4D2F4-D3FC-4E51-96B9-B6D19B4631DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,13 +392,33 @@
   </si>
   <si>
     <t>Prefabs/Tower/Normar/BaseTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elementaProperties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -722,10 +741,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1001,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1014,9 +1033,10 @@
     <col min="4" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1061,11 @@
       <c r="H1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1067,8 +1090,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1119,11 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1119,8 +1148,11 @@
       <c r="H4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1145,8 +1177,11 @@
       <c r="H5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1171,8 +1206,11 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1197,8 +1235,11 @@
       <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1223,8 +1264,11 @@
       <c r="H8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1249,8 +1293,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1275,8 +1322,11 @@
       <c r="H10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1300,6 +1350,9 @@
       </c>
       <c r="H11">
         <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1310,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1495,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1681,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC17221-730C-4BA8-B508-87C5062148E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -418,7 +419,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -741,7 +742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1020,11 +1021,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1363,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1548,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1734,7 +1735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC17221-730C-4BA8-B508-87C5062148E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,13 +412,17 @@
   </si>
   <si>
     <t>light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -742,11 +745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B1" sqref="B1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -755,6 +758,7 @@
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="33.875" customWidth="1"/>
     <col min="5" max="5" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -793,6 +797,9 @@
       <c r="E2" t="s">
         <v>67</v>
       </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -810,6 +817,9 @@
       <c r="E3" t="s">
         <v>68</v>
       </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -827,6 +837,9 @@
       <c r="E4" t="s">
         <v>68</v>
       </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -844,6 +857,9 @@
       <c r="E5" t="s">
         <v>68</v>
       </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -861,6 +877,9 @@
       <c r="E6" t="s">
         <v>69</v>
       </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -878,6 +897,9 @@
       <c r="E7" t="s">
         <v>69</v>
       </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -895,6 +917,9 @@
       <c r="E8" t="s">
         <v>69</v>
       </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -912,6 +937,9 @@
       <c r="E9" t="s">
         <v>70</v>
       </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -929,6 +957,9 @@
       <c r="E10" t="s">
         <v>70</v>
       </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -946,6 +977,9 @@
       <c r="E11" t="s">
         <v>70</v>
       </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -957,6 +991,9 @@
       <c r="C12" t="s">
         <v>36</v>
       </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -968,6 +1005,9 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -979,6 +1019,9 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -990,6 +1033,9 @@
       <c r="C15" t="s">
         <v>39</v>
       </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1001,8 +1047,11 @@
       <c r="C16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1011,6 +1060,9 @@
       </c>
       <c r="C17" t="s">
         <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1021,339 +1073,438 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
         <v>500</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
         <v>1000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
         <v>2000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
         <v>3000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
         <v>1000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
         <v>2000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
         <v>3000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9">
         <v>1000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
         <v>2000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>20</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
         <v>31</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
         <v>3000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>30</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>99</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1549,11 +1700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1735,11 +1886,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72CEE47-94A0-435D-ABFC-876DE3EC964F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,12 +418,15 @@
   <si>
     <t>randomNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenseTowerCoin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1073,11 +1077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1090,9 +1094,10 @@
     <col min="10" max="10" width="18.75" customWidth="1"/>
     <col min="11" max="11" width="11.375" customWidth="1"/>
     <col min="12" max="12" width="27.25" customWidth="1"/>
+    <col min="13" max="13" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,8 +1134,11 @@
       <c r="L1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1164,8 +1172,11 @@
       <c r="L2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1202,8 +1213,11 @@
       <c r="L3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1240,8 +1254,11 @@
       <c r="L4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1278,8 +1295,11 @@
       <c r="L5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1316,8 +1336,11 @@
       <c r="L6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1354,8 +1377,11 @@
       <c r="L7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1392,8 +1418,11 @@
       <c r="L8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1430,8 +1459,11 @@
       <c r="L9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1468,8 +1500,11 @@
       <c r="L10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1505,6 +1540,9 @@
       </c>
       <c r="L11" t="s">
         <v>70</v>
+      </c>
+      <c r="M11">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1700,7 +1738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1886,11 +1924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72CEE47-94A0-435D-ABFC-876DE3EC964F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CAEB8F-AD31-4EDF-88DB-10522E673A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CAEB8F-AD31-4EDF-88DB-10522E673A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -47,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attackDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>attackSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,12 +416,16 @@
   </si>
   <si>
     <t>expenseTowerCoin</t>
+  </si>
+  <si>
+    <t>combatEffectAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,10 +748,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -776,297 +775,297 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1077,17 +1076,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="6" width="21.625" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
@@ -1108,42 +1107,42 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>100</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>500</v>
@@ -1161,16 +1160,16 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -1178,10 +1177,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -1199,19 +1198,19 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -1219,10 +1218,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -1240,19 +1239,19 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M4">
         <v>500</v>
@@ -1260,10 +1259,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>3000</v>
@@ -1281,19 +1280,19 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5">
         <v>1000</v>
@@ -1301,10 +1300,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -1322,19 +1321,19 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M6">
         <v>100</v>
@@ -1342,10 +1341,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -1363,19 +1362,19 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M7">
         <v>500</v>
@@ -1383,10 +1382,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8">
         <v>3000</v>
@@ -1404,19 +1403,19 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M8">
         <v>1000</v>
@@ -1424,10 +1423,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>1000</v>
@@ -1445,19 +1444,19 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -1465,10 +1464,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>2000</v>
@@ -1486,19 +1485,19 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10">
         <v>500</v>
@@ -1506,10 +1505,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>3000</v>
@@ -1527,19 +1526,19 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11">
         <v>1000</v>
@@ -1553,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1577,24 +1576,24 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1606,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1617,7 +1616,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -1629,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1640,7 +1639,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>450</v>
@@ -1652,7 +1651,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1663,7 +1662,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>1500</v>
@@ -1675,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1686,7 +1685,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>3000</v>
@@ -1698,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1709,7 +1708,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>4500</v>
@@ -1721,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1738,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1757,25 +1756,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1783,16 +1782,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -1806,16 +1805,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>300</v>
@@ -1829,16 +1828,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <v>450</v>
@@ -1852,16 +1851,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5">
         <v>1500</v>
@@ -1875,16 +1874,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>3000</v>
@@ -1898,16 +1897,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>4500</v>
@@ -1924,7 +1923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1941,120 +1940,120 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1000</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>500</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1555,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E2B53-627B-40BD-A631-677B5D29A961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -425,7 +426,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1076,11 +1077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1154,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1192,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1233,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1315,7 +1316,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1356,7 +1357,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1438,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1479,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1552,10 +1553,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1737,7 +1738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1923,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E2B53-627B-40BD-A631-677B5D29A961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="103">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -420,13 +419,17 @@
   </si>
   <si>
     <t>combatEffectAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosmon14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,7 +752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1077,10 +1080,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1553,11 +1556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1663,10 +1666,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1675,21 +1678,21 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -1701,18 +1704,18 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1724,10 +1727,56 @@
         <v>32</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>4500</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>6000</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -1738,7 +1787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1924,7 +1973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,30 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Monster/Normar/LV1_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Normar/LV2_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Normar/LV3_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Boss/LV1_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Boss/LV2_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monster/Boss/LV3_Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Tower/Character/FireTower1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,6 +399,58 @@
   </si>
   <si>
     <t>bosmon14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normar/LV1_Normar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normar/LV2_Normar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normar/LV3_Normar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/LV1_Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/LV2_Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/LV3_Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normon14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노말몬스터4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Normar/LV4_Normar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/Normar4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스몬스터4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monster/Boss/LV4_Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/Boss4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,13 +807,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -793,19 +821,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -813,19 +841,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -833,19 +861,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,19 +881,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -873,19 +901,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,19 +921,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -913,19 +941,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -933,19 +961,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,19 +981,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,19 +1001,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -996,10 +1024,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1010,10 +1038,10 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1024,52 +1052,80 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1083,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1126,19 +1182,19 @@
         <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
         <v>94</v>
-      </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1146,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>500</v>
@@ -1158,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1170,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -1184,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -1208,13 +1264,13 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -1225,7 +1281,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -1249,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M4">
         <v>500</v>
@@ -1266,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>3000</v>
@@ -1290,13 +1346,13 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M5">
         <v>1000</v>
@@ -1307,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -1331,13 +1387,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M6">
         <v>100</v>
@@ -1348,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -1372,13 +1428,13 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M7">
         <v>500</v>
@@ -1389,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>3000</v>
@@ -1413,13 +1469,13 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M8">
         <v>1000</v>
@@ -1430,7 +1486,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>1000</v>
@@ -1454,13 +1510,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M9">
         <v>100</v>
@@ -1471,7 +1527,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>2000</v>
@@ -1495,13 +1551,13 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M10">
         <v>500</v>
@@ -1512,7 +1568,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>3000</v>
@@ -1536,13 +1592,13 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M11">
         <v>1000</v>
@@ -1559,7 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1592,7 +1648,7 @@
         <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1758,7 +1814,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>6000</v>
@@ -1791,7 +1847,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1812,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1835,13 +1891,13 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -1858,13 +1914,13 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>300</v>
@@ -1881,13 +1937,13 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>450</v>
@@ -1910,7 +1966,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>1500</v>
@@ -1933,7 +1989,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>3000</v>
@@ -1956,7 +2012,7 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>4500</v>
@@ -1990,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2004,7 +2060,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2015,7 +2071,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2026,7 +2082,7 @@
         <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2037,7 +2093,7 @@
         <v>1000</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2048,7 +2104,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2059,7 +2115,7 @@
         <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2070,7 +2126,7 @@
         <v>1000</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2081,7 +2137,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2092,7 +2148,7 @@
         <v>500</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2103,7 +2159,7 @@
         <v>1000</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="120">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,6 +452,44 @@
   <si>
     <t>IconImage/Boss4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초급바바리안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급바바리안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급바바리안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/Barbarian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/Barbarian2</t>
+  </si>
+  <si>
+    <t>Prefabs/Tower/Character/Barbarian3</t>
   </si>
 </sst>
 </file>
@@ -781,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1018,113 +1056,164 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>96</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>107</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>108</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F22" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1137,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1601,6 +1690,129 @@
         <v>63</v>
       </c>
       <c r="M11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14">
         <v>1000</v>
       </c>
     </row>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="monsterStatusEntity" sheetId="3" r:id="rId3"/>
     <sheet name="stageEntity" sheetId="4" r:id="rId4"/>
     <sheet name="shopEntity" sheetId="5" r:id="rId5"/>
+    <sheet name="HiddenEntity" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
   <si>
     <t>dataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,6 +491,18 @@
   </si>
   <si>
     <t>Prefabs/Tower/Character/Barbarian3</t>
+  </si>
+  <si>
+    <t>시작이 반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 타워장인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -821,9 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1228,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1300,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1338,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1379,7 +1390,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1420,7 +1431,7 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1461,7 +1472,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1502,7 +1513,7 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1543,7 +1554,7 @@
         <v>30</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1584,7 +1595,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -1625,7 +1636,7 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1666,7 +1677,7 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2379,4 +2390,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -1838,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1885,7 +1885,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -1908,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -1931,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -1954,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -1977,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -2000,7 +2000,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -2023,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -2046,7 +2046,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -2396,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F9E47-9FBC-4411-9A1A-D06A36BDCE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -508,7 +509,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,7 +832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1236,7 +1237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1835,11 +1836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1885,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -1908,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -1931,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -1954,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -1977,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
@@ -2000,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
@@ -2023,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -2046,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -2066,7 +2067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2393,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
+++ b/Assets/Scripts/Data/ExcelData/GameEntityData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOON\TowerDefence\Assets\Scripts\Data\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F9E47-9FBC-4411-9A1A-D06A36BDCE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="profileEntity" sheetId="1" r:id="rId1"/>
@@ -112,18 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bosmon11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bosmon12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bosmon13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>노말몬스터1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,26 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IconImage/Normar1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IconImage/Normar2</t>
-  </si>
-  <si>
-    <t>IconImage/Normar3</t>
-  </si>
-  <si>
-    <t>IconImage/Boss2</t>
-  </si>
-  <si>
-    <t>IconImage/Boss3</t>
-  </si>
-  <si>
-    <t>IconImage/Boss1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rewardCoin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,10 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bosmon14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Monster/Normar/LV1_Normar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IconImage/Normar4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보스몬스터4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,10 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IconImage/Boss4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nor41</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,13 +458,55 @@
   </si>
   <si>
     <t>missionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossmon11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossmon12</t>
+  </si>
+  <si>
+    <t>bossmon13</t>
+  </si>
+  <si>
+    <t>bossmon14</t>
+  </si>
+  <si>
+    <t>IconImage/Monster1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/Monster2</t>
+  </si>
+  <si>
+    <t>IconImage/Monster3</t>
+  </si>
+  <si>
+    <t>IconImage/Monster4</t>
+  </si>
+  <si>
+    <t>IconImage/AxeTowerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/FireTowerLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/IceTowerLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconImage/LightTowerLv2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -832,10 +829,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -857,13 +856,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,19 +870,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -891,19 +890,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -911,19 +910,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -931,19 +930,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -951,19 +950,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -971,19 +970,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -991,19 +990,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1011,19 +1010,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1031,19 +1030,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1051,70 +1050,70 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
         <v>119</v>
       </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1122,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1136,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1150,83 +1149,83 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1237,11 +1236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1280,22 +1279,22 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1303,7 +1302,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>500</v>
@@ -1321,16 +1320,16 @@
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -1341,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -1359,22 +1358,22 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1382,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>2000</v>
@@ -1400,22 +1399,22 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1423,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>3000</v>
@@ -1441,19 +1440,19 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M5">
         <v>1000</v>
@@ -1464,7 +1463,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>1000</v>
@@ -1482,22 +1481,22 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1505,7 +1504,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>2000</v>
@@ -1523,22 +1522,22 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1546,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>3000</v>
@@ -1564,19 +1563,19 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M8">
         <v>1000</v>
@@ -1587,7 +1586,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1000</v>
@@ -1605,22 +1604,22 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1628,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>2000</v>
@@ -1646,22 +1645,22 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M10">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1669,7 +1668,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>3000</v>
@@ -1687,19 +1686,19 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M11">
         <v>1000</v>
@@ -1707,10 +1706,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C12">
         <v>500</v>
@@ -1725,33 +1724,33 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K12">
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>1000</v>
@@ -1766,33 +1765,33 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="M13">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C14">
         <v>2000</v>
@@ -1807,22 +1806,22 @@
         <v>5</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="M14">
         <v>1000</v>
@@ -1836,11 +1835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1863,16 +1862,16 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1889,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1912,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1935,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1946,7 +1945,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>600</v>
@@ -1958,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1969,7 +1968,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>1500</v>
@@ -1981,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1992,7 +1991,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>3000</v>
@@ -2004,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -2015,7 +2014,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>4500</v>
@@ -2027,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -2038,7 +2037,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>6000</v>
@@ -2050,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2067,11 +2066,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2086,25 +2085,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2118,10 +2117,10 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <v>150</v>
@@ -2141,10 +2140,10 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F3">
         <v>300</v>
@@ -2164,10 +2163,10 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F4">
         <v>450</v>
@@ -2178,71 +2177,117 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F5">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F6">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G6">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8">
         <v>4500</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9">
+        <v>6000</v>
+      </c>
+      <c r="G9">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2253,11 +2298,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2270,10 +2315,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2284,7 +2329,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2292,43 +2337,43 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2336,54 +2381,21 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1000</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>500</v>
-      </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2412,10 +2424,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2423,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>1000</v>
@@ -2434,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>2000</v>
